--- a/ShapeNet/Results.xlsx
+++ b/ShapeNet/Results.xlsx
@@ -11,72 +11,15 @@
     <sheet name="List2" sheetId="2" r:id="rId2"/>
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$B$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Deconvolution average accuracy 0.939894</t>
-  </si>
-  <si>
-    <t>Deconvolution average category accuracy 0.992521</t>
-  </si>
-  <si>
-    <t>Category airplane has 4 parts and IoU 0.817347</t>
-  </si>
-  <si>
-    <t>Category bag has 2 parts and IoU 0.660756</t>
-  </si>
-  <si>
-    <t>Category cap has 2 parts and IoU 0.462437</t>
-  </si>
-  <si>
-    <t>Category car has 4 parts and IoU 0.762970</t>
-  </si>
-  <si>
-    <t>Category chair has 4 parts and IoU 0.903923</t>
-  </si>
-  <si>
-    <t>Category earphone has 3 parts and IoU 0.566583</t>
-  </si>
-  <si>
-    <t>Category guitar has 3 parts and IoU 0.874141</t>
-  </si>
-  <si>
-    <t>Category knife has 2 parts and IoU 0.854130</t>
-  </si>
-  <si>
-    <t>Category lamp has 4 parts and IoU 0.796021</t>
-  </si>
-  <si>
-    <t>Category laptop has 2 parts and IoU 0.960586</t>
-  </si>
-  <si>
-    <t>Category motorbike has 6 parts and IoU 0.552166</t>
-  </si>
-  <si>
-    <t>Category mug has 2 parts and IoU 0.886867</t>
-  </si>
-  <si>
-    <t>Category pistol has 3 parts and IoU 0.830821</t>
-  </si>
-  <si>
-    <t>Category rocket has 3 parts and IoU 0.496295</t>
-  </si>
-  <si>
-    <t>Category skateboard has 3 parts and IoU 0.622700</t>
-  </si>
-  <si>
-    <t>Category table has 3 parts and IoU 0.842430</t>
-  </si>
-  <si>
-    <t>Weighted average IOU is 0.837775</t>
-  </si>
-  <si>
-    <t>iou</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>mean</t>
   </si>
@@ -145,22 +88,53 @@
   </si>
   <si>
     <t>Ours</t>
+  </si>
+  <si>
+    <t>Ours accuracy</t>
+  </si>
+  <si>
+    <t>Ours accuracy category</t>
+  </si>
+  <si>
+    <t>3DCNN</t>
+  </si>
+  <si>
+    <t>Intersection over Union (IoU)</t>
+  </si>
+  <si>
+    <t>ShapeNet Parts dataset</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>point clouds of meshes - 16 categories, each has 2-6 parts, summing up to 50 parts</t>
+  </si>
+  <si>
+    <t>point cloud are normalized in range -0.5,0.5</t>
+  </si>
+  <si>
+    <t>Our room dataset</t>
+  </si>
+  <si>
+    <t>renders of room with 5 part categories</t>
+  </si>
+  <si>
+    <t>point clouds are aligned with vertical axis, though it introduces perspective scaling</t>
+  </si>
+  <si>
+    <t>to be evaluated hopefully soon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -184,19 +158,225 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,172 +673,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
         <v>83.7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>83.4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>78.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>82.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>89.6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>73</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>91.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>85.9</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>80.8</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>95.3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>65.2</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>93</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>81.2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>57.9</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>72.8</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>80.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
         <v>85.1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>82.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>79</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>87.7</v>
       </c>
       <c r="F4" s="1">
         <v>77.3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>90.8</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>71.8</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>91</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>85.9</v>
       </c>
       <c r="K4" s="1">
         <v>83.7</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>95.3</v>
       </c>
       <c r="M4" s="1">
         <v>71.599999999999994</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>94.1</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>81.3</v>
       </c>
       <c r="P4" s="1">
@@ -667,71 +864,71 @@
       <c r="Q4" s="1">
         <v>76.400000000000006</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>82.6</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6">
         <v>82.3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>80.099999999999994</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>74.599999999999994</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>74.3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>70.3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>88.6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>73.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>90.2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>87.2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>81</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>94.9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>57.4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>86.7</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>51.8</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>69.900000000000006</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>80.3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
         <v>85.9</v>
       </c>
       <c r="C6" s="1">
@@ -740,7 +937,7 @@
       <c r="D6" s="1">
         <v>87.1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>84.7</v>
       </c>
       <c r="F6" s="1">
@@ -758,13 +955,13 @@
       <c r="J6" s="1">
         <v>87.4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>83.3</v>
       </c>
       <c r="L6" s="1">
         <v>95.4</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>56.9</v>
       </c>
       <c r="N6" s="1">
@@ -773,10 +970,10 @@
       <c r="O6" s="1">
         <v>81.599999999999994</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>53.5</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>74.099999999999994</v>
       </c>
       <c r="R6" s="1">
@@ -785,15 +982,15 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
         <v>84.9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>82.8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>77.8</v>
       </c>
       <c r="E7" s="1">
@@ -802,144 +999,235 @@
       <c r="F7" s="1">
         <v>77.3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>90.6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>73.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>90.7</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>83.9</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>82.8</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>94.8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>69.099999999999994</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>94.2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>53.1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>72.900000000000006</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="C8" s="3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D8" s="3">
+        <v>72.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K8" s="3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L8" s="3">
+        <v>93.9</v>
+      </c>
+      <c r="M8" s="3">
+        <v>58.7</v>
+      </c>
+      <c r="N8" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="O8" s="3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="P8" s="3">
+        <v>51.2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
+        <v>83.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>81.7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5">
+        <v>46.2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>76.2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>90.4</v>
+      </c>
+      <c r="H9" s="5">
+        <v>56.6</v>
+      </c>
+      <c r="I9" s="5">
+        <v>87.4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>85.4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="L9" s="5">
+        <v>96</v>
+      </c>
+      <c r="M9" s="5">
+        <v>55.2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>88.6</v>
+      </c>
+      <c r="O9" s="5">
+        <v>83</v>
+      </c>
+      <c r="P9" s="5">
+        <v>49.6</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>62.3</v>
+      </c>
+      <c r="R9" s="5">
+        <v>84.2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>93.989000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>99.25</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>12137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>5067</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3740</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:R1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:R9">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B3=MAX(B$3:B$9)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ShapeNet/Results.xlsx
+++ b/ShapeNet/Results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t xml:space="preserve">iou</t>
   </si>
@@ -264,7 +264,136 @@
     <t xml:space="preserve">Weighted average IOU is 0.838882</t>
   </si>
   <si>
+    <t xml:space="preserve">best+variance sacling+regularization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 22 trained in 416.028952, cost 113.340152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model saved in file: ./3d-object-recognition\ShapeNet\ShapeNet22.ckpt</t>
+  </si>
+  <si>
     <t xml:space="preserve">35GB train data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train deconvolution average accuracy 0.957705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train category accuracy 0.993248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category airplane has 4 parts and IoU 0.826747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category bag has 2 parts and IoU 0.808461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category cap has 2 parts and IoU 0.916903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category car has 4 parts and IoU 0.791826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category chair has 4 parts and IoU 0.911943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category earphone has 3 parts and IoU 0.556492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category guitar has 3 parts and IoU 0.881702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category knife has 2 parts and IoU 0.844052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category lamp has 4 parts and IoU 0.870830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category laptop has 2 parts and IoU 0.956305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category motorbike has 6 parts and IoU 0.556993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category mug has 2 parts and IoU 0.937098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category pistol has 3 parts and IoU 0.851671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category rocket has 3 parts and IoU 0.441905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category skateboard has 3 parts and IoU 0.730330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category table has 3 parts and IoU 0.861034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted average IOU is 0.860397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev deconvolution average accuracy 0.939193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev category accuracy 0.989774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category airplane has 4 parts and IoU 0.833135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category bag has 2 parts and IoU 0.739287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category cap has 2 parts and IoU 0.542882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category car has 4 parts and IoU 0.777862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category chair has 4 parts and IoU 0.903612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category earphone has 3 parts and IoU 0.511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category guitar has 3 parts and IoU 0.879616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category knife has 2 parts and IoU 0.781302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category lamp has 4 parts and IoU 0.796643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category laptop has 2 parts and IoU 0.965612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category motorbike has 6 parts and IoU 0.525037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category mug has 2 parts and IoU 0.925973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category pistol has 3 parts and IoU 0.841207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category rocket has 3 parts and IoU 0.437171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category skateboard has 3 parts and IoU 0.631756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category table has 3 parts and IoU 0.836823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted average IOU is 0.839242</t>
   </si>
 </sst>
 </file>
@@ -378,10 +507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,6 +1086,9 @@
       <c r="D31" s="0" t="n">
         <v>95.95</v>
       </c>
+      <c r="I31" s="0" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
@@ -965,6 +1097,9 @@
       <c r="D32" s="0" t="n">
         <v>97.16</v>
       </c>
+      <c r="I32" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="n">
@@ -973,6 +1108,9 @@
       <c r="D33" s="0" t="n">
         <v>98.23</v>
       </c>
+      <c r="I33" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="n">
@@ -982,7 +1120,205 @@
         <v>99.78</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
